--- a/학습자료/단답형_한자/오답노트/오답노트_무한반복_단답형_단답형_한자의지혜.xlsx
+++ b/학습자료/단답형_한자/오답노트/오답노트_무한반복_단답형_단답형_한자의지혜.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,14 +644,182 @@
           <t>용서할 서</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>非難</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>비난</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>則</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>이치 리</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>법 칙 , 곧 즉</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>腹案</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>복안</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>說</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>말씀 설, 달랠 세, 기뻐할 열, 벗을 탈</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>未安</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>미안</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>豪雨</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>폭우</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>호우</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>永遠</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>빙원</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>영원</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>連</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>잇닿을 연</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>잇닿을 련</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>20221203</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>00</t>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>07</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형_한자/오답노트/오답노트_무한반복_단답형_단답형_한자의지혜.xlsx
+++ b/학습자료/단답형_한자/오답노트/오답노트_무한반복_단답형_단답형_한자의지혜.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,14 +812,1040 @@
           <t>잇닿을 련</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>20221203</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>07</t>
+      <c r="D18" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>猜忌</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>시기</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E19" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>制度</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>제도</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E20" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>賣却</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>매각</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E21" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>權勢</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>권세</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E22" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>思索</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>사색</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>仲介</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>중재</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>중개</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>虛張聲勢</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>허상성세</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>허장성세</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E25" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>認知</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>인지</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E26" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>咽喉</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>인후</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E27" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>決</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>쾌할 쾌</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>결단할 결 , 결정할 결</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E28" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>提案</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>편안</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>제안</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E29" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>缺如</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>결여</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E30" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>復</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>회복할 복 , 다시 부</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E31" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>收益</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>수익</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E32" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>陶冶</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>도야</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E33" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>排</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>물리칠 배 , 밀칠 배</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E34" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>注意</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>句讀點</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>구두점</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E36" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>簞食瓢飮</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>단사표음</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E37" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>磨耗</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>마모</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E38" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>物</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>사건 건</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>물건 물</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E39" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>請願</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>청원</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E40" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>晩時之歎</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>만시지탄</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E41" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>友</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>벗 붕</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>벗 우</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E42" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>慈</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>배타</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>사랑 자</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E43" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>嗚咽</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>오열</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E44" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>決裁</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>결의</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>결재</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E45" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>假拂</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>가불</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E46" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>滯</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>막힐 체</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E47" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>螢雪之功</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>형설지공</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E48" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>體系</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>체</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>체계</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E49" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>動</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>동력 동</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>움직일 동</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E50" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>霧散</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>운수</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>무산</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E51" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>結束</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>결집</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>결속</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E52" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>解除</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>해방</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>해제</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E53" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>說</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>말씀 설, 달랠 세, 기뻐할 열, 벗을 탈</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E54" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>晴</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>맑을 청</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E55" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>權利</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>리</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>권리</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E56" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>缺勤</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>결</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>결근</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E57" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>俳優</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>배우</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E58" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>現</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>눈 안</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>나타날 현</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E59" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>吐說</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>토설</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E60" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>逃避</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>도망</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>도피</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E61" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>提高</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>제고</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E62" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>恕罪</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>서죄</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E63" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>議</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>의로울 의</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>의논할 의</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E64" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>安逸</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>안일</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E65" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>相</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>설 상</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>서로 상</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E66" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>民族</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>민족</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20221204</v>
+      </c>
+      <c r="E67" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>陶冶</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>도야</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>20221204</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>23</t>
         </is>
       </c>
     </row>
